--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Practice\Git\C_Sharp_Learnings\C_Sharp_Learnings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3220F08-D697-4C61-BB48-C00A096C188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CCCAD8-7A51-4E8F-9045-72BBFDAD89D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,10 +932,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,10 +1291,10 @@
       <c r="D2" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+2)</f>
         <v>45964</v>
       </c>
@@ -1312,8 +1312,8 @@
       <c r="D3" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
@@ -1328,8 +1328,8 @@
       <c r="D4" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
@@ -1344,8 +1344,8 @@
       <c r="D5" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
@@ -1360,24 +1360,24 @@
       <c r="D6" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45907</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>177</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+4)</f>
         <v>45966</v>
       </c>
@@ -1393,8 +1393,8 @@
         <v>26</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
@@ -1407,8 +1407,8 @@
         <v>26</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
@@ -1421,10 +1421,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+6)</f>
         <v>45968</v>
       </c>
@@ -1440,8 +1440,8 @@
         <v>26</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
@@ -1454,8 +1454,8 @@
         <v>26</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
@@ -1468,8 +1468,8 @@
         <v>26</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -1482,10 +1482,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+8)</f>
         <v>45970</v>
       </c>
@@ -1501,8 +1501,8 @@
         <v>26</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
@@ -1515,8 +1515,8 @@
         <v>26</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
@@ -1529,10 +1529,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+10)</f>
         <v>45972</v>
       </c>
@@ -1548,8 +1548,8 @@
         <v>26</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
@@ -1562,10 +1562,10 @@
         <v>26</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+12)</f>
         <v>45974</v>
       </c>
@@ -1581,8 +1581,8 @@
         <v>26</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
@@ -1595,10 +1595,10 @@
         <v>26</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+14)</f>
         <v>45976</v>
       </c>
@@ -1614,8 +1614,8 @@
         <v>26</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
@@ -1628,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+16)</f>
         <v>45978</v>
       </c>
@@ -1647,8 +1647,8 @@
         <v>26</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
@@ -1661,10 +1661,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+18)</f>
         <v>45980</v>
       </c>
@@ -1680,8 +1680,8 @@
         <v>26</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
@@ -1694,10 +1694,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+20)</f>
         <v>45982</v>
       </c>
@@ -1713,8 +1713,8 @@
         <v>26</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
@@ -1727,10 +1727,10 @@
         <v>26</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="17">
         <f>DATE(2025,11,1) + (ROW(A2)-ROW($A$2)+22)</f>
         <v>45984</v>
       </c>
@@ -1746,17 +1746,11 @@
         <v>26</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="E29:E30"/>
@@ -1773,6 +1767,12 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
